--- a/biology/Virologie/Mosaïque_du_manioc/Mosaïque_du_manioc.xlsx
+++ b/biology/Virologie/Mosaïque_du_manioc/Mosaïque_du_manioc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mosa%C3%AFque_du_manioc</t>
+          <t>Mosaïque_du_manioc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La mosaïque du manioc est une maladie virale affectant les cultures de manioc dans différents pays d'Afrique, mais également dans le sous-continent indien et en Amérique centrale et Amérique du Sud. L'agent causal de cette maladie est une espèce de phytovirus du genre Begomovirus, ou un mélange de plusieurs espèces parmi la dizaine d'espèces recensées dans ce genre ; il est transmis par Bemisia tabaci[1]. En Amérique, l'agent responsable de la maladie est un phytovirus du genre Potexvirus.
+La mosaïque du manioc est une maladie virale affectant les cultures de manioc dans différents pays d'Afrique, mais également dans le sous-continent indien et en Amérique centrale et Amérique du Sud. L'agent causal de cette maladie est une espèce de phytovirus du genre Begomovirus, ou un mélange de plusieurs espèces parmi la dizaine d'espèces recensées dans ce genre ; il est transmis par Bemisia tabaci. En Amérique, l'agent responsable de la maladie est un phytovirus du genre Potexvirus.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mosa%C3%AFque_du_manioc</t>
+          <t>Mosaïque_du_manioc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maladie est décrite depuis la fin du XIXe siècle[1].
-Une épidémie de mosaïque du manioc a eu lieu en Ouganda entre 1992 et 1997 à la suite d'une recombinaison de plusieurs souches[1]. Les pertes économiques totales sont estimées à 60 millions de dollars et a engendré une forte sous-nutrition[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maladie est décrite depuis la fin du XIXe siècle.
+Une épidémie de mosaïque du manioc a eu lieu en Ouganda entre 1992 et 1997 à la suite d'une recombinaison de plusieurs souches. Les pertes économiques totales sont estimées à 60 millions de dollars et a engendré une forte sous-nutrition.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mosa%C3%AFque_du_manioc</t>
+          <t>Mosaïque_du_manioc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les symptômes de la mosaïque du manioc sont variables selon l'intensité de la maladie. Ils peuvent varier de simple décoloration des feuilles (chlorose) formant des motifs en « mosaïque », jusqu'à une déformation des feuilles et un rabougrissement, voire la mort, des plants dans les cas les plus graves.
-Un indice de gravité des symptômes, basé sur les caractéristiques du port du plant et des altération foliaires et de l'écorce, peut être calculé. Il est basé sur une échelle à 5 degrés proposée par Gilbert Cours en 1950[2],[3] :
+Un indice de gravité des symptômes, basé sur les caractéristiques du port du plant et des altération foliaires et de l'écorce, peut être calculé. Il est basé sur une échelle à 5 degrés proposée par Gilbert Cours en 1950, :
 0. pas de symptôme ;
 1. la plante, conservant un port normal, est en partie indemne, mais des symptômes de mosaïque couvrent 1/5e de la surface des feuilles sans réduction ni déformation des lobes  ;
 2. le port habituel est conservé, mais plus réduit que chez les plantes normales ; la mosaïque, avec légère réduction et déformation du limbe, touche les 2/3 de la surface foliaire ;
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mosa%C3%AFque_du_manioc</t>
+          <t>Mosaïque_du_manioc</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,9 +596,11 @@
           <t>Agents causaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon CABI[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon CABI :
 Ancien Monde :
 virus de la mosaïque africaine du manioc (ACMV, African cassava mosaic virus ),
 virus de la mosaïque est-africaine du manioc (EACMV, East African cassava mosaic virus ),
@@ -605,7 +623,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mosa%C3%AFque_du_manioc</t>
+          <t>Mosaïque_du_manioc</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -623,10 +641,12 @@
           <t>Plantes-hôtes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La mosaïque africaine du manioc affecte le manioc cultivé (Manihot esculenta), qui est la principale plante-hôte du virus, la quasi-totalité des cultures de manioc étant touchées en Afrique. Cependant d'autres espèces de plantes peuvent être infectées naturellement, telles que des maniocs sauvages (Manihot glaziovii, Manihot dichotoma et Manihot catingea) et d’autres plantes non cultivées comme Jatropha multifida (Euphorbiaceae) ou Hewittia sublobata (Convolvulaceae)[5],[6]. Le virus de la mosaïque du manioc affecte également une autre Euphorbiaceae, le ricin (Ricinus communis) dans toute l’Afrique[7].
-Le virus de la mosaïque commune du manioc, présent seulement sur le continent américain peut infecter six familles de plantes dicotylédones :  Amaranthaceae, Asteraceae, Chenopodiaceae, Euphorbiaceae, Malvaceae et Solanaceae[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La mosaïque africaine du manioc affecte le manioc cultivé (Manihot esculenta), qui est la principale plante-hôte du virus, la quasi-totalité des cultures de manioc étant touchées en Afrique. Cependant d'autres espèces de plantes peuvent être infectées naturellement, telles que des maniocs sauvages (Manihot glaziovii, Manihot dichotoma et Manihot catingea) et d’autres plantes non cultivées comme Jatropha multifida (Euphorbiaceae) ou Hewittia sublobata (Convolvulaceae),. Le virus de la mosaïque du manioc affecte également une autre Euphorbiaceae, le ricin (Ricinus communis) dans toute l’Afrique.
+Le virus de la mosaïque commune du manioc, présent seulement sur le continent américain peut infecter six familles de plantes dicotylédones :  Amaranthaceae, Asteraceae, Chenopodiaceae, Euphorbiaceae, Malvaceae et Solanaceae.
 </t>
         </is>
       </c>
